--- a/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/Dom_S1_Sub_S2.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/Dom_S1_Sub_S2.xlsx
@@ -22,7 +22,7 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's eat Chinese food tonight." &lt;br&gt;
-    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Okay, let's eat Chinese ." &lt;br&gt;
+    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Okay, let's eat Chinese." &lt;br&gt;
 &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's go to the Dragon restaurant." &lt;br&gt;
     &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Noisy is my least preferred ambiance." &lt;br&gt;
 &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's go to a quiet restaurant." &lt;br&gt;
